--- a/data/trans_orig/Q15_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.068856860297436</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09360055599854844</v>
+        <v>0.09360055599854845</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06080825181653785</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0468309582266118</v>
+        <v>0.04816275052700406</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.110247444573684</v>
+        <v>0.1121466985521627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04632261552840668</v>
+        <v>0.04160693410682098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06065681669394252</v>
+        <v>0.06474933637081158</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0321541027390963</v>
+        <v>0.03455788931315124</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07437992683675741</v>
+        <v>0.07341394687156305</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07686244864444775</v>
+        <v>0.07717027655453428</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0860216966505561</v>
+        <v>0.08671444191557613</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04651909915578683</v>
+        <v>0.04701838854925169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1011451996951236</v>
+        <v>0.105014795191368</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06715580713120171</v>
+        <v>0.06704392547427444</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07998137581470678</v>
+        <v>0.08173295177459453</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1183565158047119</v>
+        <v>0.1162807897430541</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2217590285689902</v>
+        <v>0.2239058801719859</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1074036193110908</v>
+        <v>0.1062954011312577</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1329413463609282</v>
+        <v>0.1342619166333062</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1013089450842275</v>
+        <v>0.1033160387088268</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1719949248360183</v>
+        <v>0.1714996680548986</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1660402325214206</v>
+        <v>0.1681120194083358</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1502123264052805</v>
+        <v>0.1480578009892279</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09165891936998237</v>
+        <v>0.09624315150085887</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1740372441584057</v>
+        <v>0.1764630640384346</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1253867460183717</v>
+        <v>0.1221671384519091</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1278765683541233</v>
+        <v>0.1260071340114774</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.04313660129508454</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08859152056138926</v>
+        <v>0.08859152056138925</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03871147705824542</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03134540795042024</v>
+        <v>0.03317929086901894</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04674598749829127</v>
+        <v>0.0452880052749463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02607327836439792</v>
+        <v>0.02645918216848303</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04003406673614658</v>
+        <v>0.04458736715180504</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02228224120180716</v>
+        <v>0.02345603235456834</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04938495496866787</v>
+        <v>0.04908343399705404</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01665523820429508</v>
+        <v>0.01732785262630358</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07639687502169083</v>
+        <v>0.07949661791050698</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03358066137713522</v>
+        <v>0.03254006028460991</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05141506348294676</v>
+        <v>0.05256906039429986</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02623577386783662</v>
+        <v>0.02424790090870903</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07043527266860572</v>
+        <v>0.07144172527725057</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1279734170966698</v>
+        <v>0.1173703869012744</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0957361594768297</v>
+        <v>0.09659667617333344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07166797991879122</v>
+        <v>0.07102418048277778</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2076372022709072</v>
+        <v>0.2439927110739735</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06288980634994668</v>
+        <v>0.06493387707857143</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1114273223623085</v>
+        <v>0.1064205560254643</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05054102295199838</v>
+        <v>0.04981525049949622</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.172999196861211</v>
+        <v>0.171584156325971</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07395962828848435</v>
+        <v>0.07453666842498759</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09097159546507064</v>
+        <v>0.09099334122219736</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05391794652817539</v>
+        <v>0.0510512848562758</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1669649393688722</v>
+        <v>0.1707560913087627</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.07410947681219714</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09773800446437177</v>
+        <v>0.09773800446437175</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07101977153574303</v>
+        <v>0.07172851640976269</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1585107938157315</v>
+        <v>0.1588434040434735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05443889731485783</v>
+        <v>0.05297211295987844</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0608745684290023</v>
+        <v>0.05999906150828952</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02456879803641751</v>
+        <v>0.0258551018956776</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1198072186585054</v>
+        <v>0.1234761089226275</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03534657048252274</v>
+        <v>0.03608097187198641</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06776610804635792</v>
+        <v>0.07159151820782815</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0540150684218718</v>
+        <v>0.05343935425409162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1518955159080098</v>
+        <v>0.1516703393179578</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04765836256674615</v>
+        <v>0.05150022782459202</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07541768632885092</v>
+        <v>0.07411068734093829</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1388851169950495</v>
+        <v>0.1466550671708151</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3794003461095899</v>
+        <v>0.3545822323147586</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1424660248398855</v>
+        <v>0.1381254026818953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1327484020711876</v>
+        <v>0.1357364798014728</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07776365852563216</v>
+        <v>0.07975440781649344</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3058328507619943</v>
+        <v>0.3082631695333304</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1096335211224497</v>
+        <v>0.1061520051742647</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1466782037985521</v>
+        <v>0.1477974117839777</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09811912253639951</v>
+        <v>0.09963314138210914</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2675261812803835</v>
+        <v>0.2744332823365082</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1049531630411379</v>
+        <v>0.1081759805837903</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1282764103883631</v>
+        <v>0.127925002087053</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.1108031229020928</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04885930338848488</v>
+        <v>0.04885930338848489</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.09053052637910662</v>
@@ -1101,7 +1101,7 @@
         <v>0.1125225727389201</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07721883763970819</v>
+        <v>0.07721883763970817</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08974671315302701</v>
+        <v>0.08717680304831908</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05856036031033784</v>
+        <v>0.05712845508598618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08202093624166708</v>
+        <v>0.08079412912423382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05229957509364509</v>
+        <v>0.0537839828398451</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03687397396143429</v>
+        <v>0.03842417461034713</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03204279069961443</v>
+        <v>0.03188553779317174</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0749775286316834</v>
+        <v>0.07511087232844939</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02970645773020712</v>
+        <v>0.03079943880777197</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07029785047313199</v>
+        <v>0.07210160703154052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05150825314835349</v>
+        <v>0.05052866896989684</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08930414657704781</v>
+        <v>0.08719077921084017</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04822794731591833</v>
+        <v>0.04848658910430835</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1703111287838641</v>
+        <v>0.1668975566236211</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1373452993640079</v>
+        <v>0.1373067996778898</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1569845345916658</v>
+        <v>0.1551378228039117</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2801126073064001</v>
+        <v>0.2800328583482621</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08693699356639144</v>
+        <v>0.08879225533652688</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09801067308826561</v>
+        <v>0.1040696877806824</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1642656298735757</v>
+        <v>0.1635698370895584</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08294477345354909</v>
+        <v>0.08366697197434965</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1161596896496122</v>
+        <v>0.1152655186212487</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1059837458217247</v>
+        <v>0.1064946996841982</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.146261492712867</v>
+        <v>0.1495698908094487</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1551252697402702</v>
+        <v>0.1581627320499696</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.01539035993378134</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.002312405980937437</v>
+        <v>0.002312405980937436</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1075156799572283</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06989923733608787</v>
+        <v>0.06910112924842174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03852017008119801</v>
+        <v>0.04127641570090288</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02256684491822893</v>
+        <v>0.02665263239759297</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01599197302760526</v>
+        <v>0.01711897317042352</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04547786676900955</v>
+        <v>0.0443412151190168</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06860021597438443</v>
+        <v>0.06825285807607318</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.004818704419562672</v>
+        <v>0.004904010855571773</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07367824568248259</v>
+        <v>0.06929459345680959</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06177744111247725</v>
+        <v>0.06445593066222578</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01760263551103174</v>
+        <v>0.01849856703269283</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.009442946336426969</v>
+        <v>0.009389681120279825</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1725170567183646</v>
+        <v>0.1683326116416852</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.132435292979469</v>
+        <v>0.1321148021202945</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08211445054214334</v>
+        <v>0.08767251402418209</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07439795224301393</v>
+        <v>0.07517777621134467</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2794932568682119</v>
+        <v>0.3121468499570995</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.179718285000855</v>
+        <v>0.176925032648492</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04253239453447469</v>
+        <v>0.04094014313034379</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01194908697080649</v>
+        <v>0.01076403231865755</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2301883017608083</v>
+        <v>0.2019807914026198</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1337441275034889</v>
+        <v>0.133414931705536</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05086849151107965</v>
+        <v>0.05410564491110756</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03579810269185699</v>
+        <v>0.03739073015522954</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.2233607808962985</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1654681787971954</v>
+        <v>0.1654681787971953</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07663251955050349</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04437422418340769</v>
+        <v>0.04377081138121856</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07990447567802722</v>
+        <v>0.079319630243049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08556598171583638</v>
+        <v>0.08465867616328937</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07500076910503205</v>
+        <v>0.07590987430823593</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04912400883842534</v>
+        <v>0.04709924519493149</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09093151968816184</v>
+        <v>0.08636731951021197</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1457469291993184</v>
+        <v>0.1484569466424654</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1237983211554337</v>
+        <v>0.1250036717512446</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0536266048604974</v>
+        <v>0.05553452557992408</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.09400773118339432</v>
+        <v>0.0952530790923132</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1299582163117028</v>
+        <v>0.12853345669431</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1076855056074792</v>
+        <v>0.1044359673045812</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1133625179966386</v>
+        <v>0.1186937983419774</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1625549912354327</v>
+        <v>0.1705224326780606</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1806523947699583</v>
+        <v>0.181022656235172</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1420662996249472</v>
+        <v>0.1397910804967852</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1156608892633477</v>
+        <v>0.1139875709277328</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1751353717111132</v>
+        <v>0.168514477296349</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3253391530587166</v>
+        <v>0.3359699321716296</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2442069913804419</v>
+        <v>0.2429826721150218</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1020839267829251</v>
+        <v>0.103793043497609</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1548835299142636</v>
+        <v>0.1531289479344842</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2370310828835205</v>
+        <v>0.2347979652302056</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1747047761481931</v>
+        <v>0.1724094321642289</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05464099993526138</v>
+        <v>0.05512515660266684</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08609713509594547</v>
+        <v>0.0864638369949642</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02483990665111582</v>
+        <v>0.02592376717963782</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06565608439141823</v>
+        <v>0.06337834170986271</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02656593343964145</v>
+        <v>0.02628530675864613</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06527293031947314</v>
+        <v>0.06688843266340797</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02811206836116732</v>
+        <v>0.02931281398028013</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08486036959314741</v>
+        <v>0.08685038199374263</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0436600004549074</v>
+        <v>0.04370440919845828</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08218963245581613</v>
+        <v>0.08175830134888079</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03026418109627095</v>
+        <v>0.03033405421092462</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0840870933467793</v>
+        <v>0.08100562824708904</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1057725876297418</v>
+        <v>0.1047101603688563</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1501532284375711</v>
+        <v>0.1508136868179839</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05549449469149224</v>
+        <v>0.05761032403115955</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1342572106204011</v>
+        <v>0.1332274605312607</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05833706064135412</v>
+        <v>0.05912678909340034</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1127926081727954</v>
+        <v>0.1134129112344935</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06435786113235359</v>
+        <v>0.06675141864434589</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1461456415711087</v>
+        <v>0.1528307639824925</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07423979674977325</v>
+        <v>0.0738184095445048</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.121765042209877</v>
+        <v>0.1219602469009981</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.053401557669348</v>
+        <v>0.05570210729554392</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1311364205634974</v>
+        <v>0.127221342245344</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.050949719691192</v>
+        <v>0.05059651188338037</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01928630606139993</v>
+        <v>0.01834958396382754</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03547605738711852</v>
+        <v>0.03544120062949854</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02496959842207441</v>
+        <v>0.02425942193947356</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05373190940130788</v>
+        <v>0.05227451746064569</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02807679314210502</v>
+        <v>0.02684921462958777</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02205608926848053</v>
+        <v>0.02130267179392862</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03044206654264678</v>
+        <v>0.02980766263467085</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05541332255805579</v>
+        <v>0.05760397213020246</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02704668822120374</v>
+        <v>0.02664694301865997</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03138673771752062</v>
+        <v>0.03095380219191155</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.03115045784894466</v>
+        <v>0.03119780982349211</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08901247826882364</v>
+        <v>0.09114519588266624</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04555854198218025</v>
+        <v>0.0441589821191555</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07358175955758832</v>
+        <v>0.07275913303632764</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05780749542636737</v>
+        <v>0.05669869986174839</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09766900483781343</v>
+        <v>0.09699444031727995</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08656464524778541</v>
+        <v>0.09059169198087122</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04684513466706759</v>
+        <v>0.04720084297591585</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05679488133518001</v>
+        <v>0.05534253154774967</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08757984588161577</v>
+        <v>0.08619989850756969</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.05966976437009554</v>
+        <v>0.05856405405776208</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.05340406315436503</v>
+        <v>0.05274503117132062</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.05217278574819031</v>
+        <v>0.05169404284220323</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>0.06462094881087156</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.07888563039453378</v>
+        <v>0.07888563039453379</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.05825302624045315</v>
@@ -1781,7 +1781,7 @@
         <v>0.06548119251700488</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.0823196691693522</v>
+        <v>0.08231966916935221</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07007910331815577</v>
+        <v>0.07123257618210006</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08251196790149166</v>
+        <v>0.08400808603599536</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05553298768160423</v>
+        <v>0.05599281460770466</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.06588717459707563</v>
+        <v>0.06570752430096531</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04928599906799205</v>
+        <v>0.05025321117447924</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.07529770993230973</v>
+        <v>0.07696292609458956</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.05585130632948162</v>
+        <v>0.05614062671804305</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.07480977542920622</v>
+        <v>0.0750464679524246</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06229208910341892</v>
+        <v>0.06257433446085586</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.08301286871821267</v>
+        <v>0.08309056480327964</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.05820986156838658</v>
+        <v>0.05839427071788267</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.07359098638740731</v>
+        <v>0.07355127696819765</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.09382906346804241</v>
+        <v>0.09366406017161281</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1110438756591971</v>
+        <v>0.1123809888305604</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.07506107680216674</v>
+        <v>0.07572850243803332</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1012555892005746</v>
+        <v>0.1046655563940897</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07059957792608648</v>
+        <v>0.07077287568279908</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1027148052351433</v>
+        <v>0.1038650106354597</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.0790623194543266</v>
+        <v>0.0786829480213181</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.09825184437550556</v>
+        <v>0.09952930826591021</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.07848928439473649</v>
+        <v>0.07804130924295556</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1028821247477596</v>
+        <v>0.1027288106134898</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.07354384864434137</v>
+        <v>0.0725257443209489</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.09444819161072121</v>
+        <v>0.09519803409940614</v>
       </c>
     </row>
     <row r="31">
